--- a/Definition of Done.xlsx
+++ b/Definition of Done.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fhsuedwf-my.sharepoint.com/personal/kai_puetter_fhsuedwf_onmicrosoft_com/Documents/Studium/Master/WS2122/Agiles Project Management/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A6CD0D4F-AD78-436F-AD53-B3BEBF5276C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{A6CD0D4F-AD78-436F-AD53-B3BEBF5276C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{148C39CE-C746-46EB-991D-EC6C25DE472B}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B98EA9AA-9FC3-41E5-ACA5-F256ED823390}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="17">
   <si>
     <t>X</t>
   </si>
@@ -76,6 +76,15 @@
   </si>
   <si>
     <t>Hypothesen erstellen</t>
+  </si>
+  <si>
+    <t>Ausgefüllt von</t>
+  </si>
+  <si>
+    <t>Heiser</t>
+  </si>
+  <si>
+    <t>Pütter</t>
   </si>
 </sst>
 </file>
@@ -126,7 +135,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -134,6 +143,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -449,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF400189-6F8A-4158-8832-8086276CAA47}">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -601,6 +613,20 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
     </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
